--- a/aircraft_outputs.xlsx
+++ b/aircraft_outputs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,45 +441,492 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TOW</t>
+          <t>Number of 463L master pallet crates</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104662.5726869942</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OEW</t>
+          <t>Number of Humvee 1151 vehicles</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21515.51569245518</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Wingspan</t>
+          <t>Number of airborne personnel</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.60838330288219</v>
+        <v>9</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Range</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Take-off distance</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1093</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Landing distance</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>975</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cruise altitude</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8535</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cruise velocity</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>150</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>m/s</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Wing aspect ratio</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Wing root airfoil</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>64318</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Wing tip airfoil</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>64412</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Number of engines</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Wing position</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>x/length_fuselage</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Horizontal tail thickness ratio</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0018</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>t/c_h_root</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Vertical tail thickness ratio</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0018</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>t/c_v_root</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Cruise angle of attack</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>deg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ultimate design load factor</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Number of fuel tanks</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Design propulsive efficiency</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Class I weight estimation</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Operative Empty Weight (OEW)</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>21093.50425273008</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Take-Off Weight (TOW)</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>67707.11367456056</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuel weight (Wf)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>35189.60942183048</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Class II weight estimation</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Wing weight</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1598.656536988379</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Fuselage weight</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10749.72838332894</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Engine weight</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6243.32026452595</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Horizontal tail weight</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1929.9998132356</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Vertical tail weight</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>101.7482430393286</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Fuel tank weight</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>470.0510116118821</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Longitudinal Static Stability</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tailless center of gravity</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>10.1108299875289</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Total center of gravity</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>11.15979058353563</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Class I weight estimation</t>
         </is>
       </c>
     </row>

--- a/aircraft_outputs.xlsx
+++ b/aircraft_outputs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8535</v>
+        <v>6000</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21093.50425273008</v>
+        <v>19235.93618374716</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>67707.11367456056</v>
+        <v>85128.60044282374</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35189.60942183048</v>
+        <v>54568.66425907657</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1598.656536988379</v>
+        <v>1246.114006310022</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10749.72838332894</v>
+        <v>9694.815192239563</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6243.32026452595</v>
+        <v>6160.906687053855</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1929.9998132356</v>
+        <v>1337.865595885331</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>101.7482430393286</v>
+        <v>77.37596008705309</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>470.0510116118821</v>
+        <v>389.5769267962468</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10.1108299875289</v>
+        <v>10.01505877647578</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11.15979058353563</v>
+        <v>10.82710767237309</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -923,10 +923,18 @@
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Class I weight estimation</t>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Stability margin</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-6.540066047709018</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>m</t>
         </is>
       </c>
     </row>

--- a/aircraft_outputs.xlsx
+++ b/aircraft_outputs.xlsx
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19235.93618374716</v>
+        <v>16078.71881973479</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>85128.60044282374</v>
+        <v>59469.23765527662</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>54568.66425907657</v>
+        <v>32066.51883554183</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1246.114006310022</v>
+        <v>808.5061581844309</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9694.815192239563</v>
+        <v>8103.039829805081</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6160.906687053855</v>
+        <v>5998.235682516919</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1337.865595885331</v>
+        <v>684.4953146231354</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>77.37596008705309</v>
+        <v>48.84828771041543</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>389.5769267962468</v>
+        <v>281.1812577558647</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10.01505877647578</v>
+        <v>9.473779390673593</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.82710767237309</v>
+        <v>9.975102952607239</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.540066047709018</v>
+        <v>-1.803694710865269</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>

--- a/aircraft_outputs.xlsx
+++ b/aircraft_outputs.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3000000</v>
+        <v>33468757.07228434</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -501,26 +501,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Take-off distance</t>
+          <t>Endurance</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1093</v>
+        <v>61.97917976348952</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>h</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Landing distance</t>
+          <t>Take-off distance</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>975</v>
+        <v>1093</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -531,11 +531,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cruise altitude</t>
+          <t>Landing distance</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6000</v>
+        <v>975</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -546,43 +546,41 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cruise velocity</t>
+          <t>Cruise altitude</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150</v>
+        <v>6000</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>m/s</t>
+          <t>m</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Wing aspect ratio</t>
+          <t>Cruise velocity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.1</v>
+        <v>150</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>m/s</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Wing root airfoil</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>64318</t>
-        </is>
+          <t>Wing aspect ratio</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10.1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -593,12 +591,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Wing tip airfoil</t>
+          <t>Wing root airfoil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>64412</t>
+          <t>64318</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -610,11 +608,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Number of engines</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
+          <t>Wing tip airfoil</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>64412</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -625,39 +625,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Wing position</t>
+          <t>Number of engines</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>x/length_fuselage</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Horizontal tail thickness ratio</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0018</t>
-        </is>
+          <t>Wing position</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>t/c_h_root</t>
+          <t>x/length_fuselage</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Vertical tail thickness ratio</t>
+          <t>Horizontal tail thickness ratio</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -667,48 +665,50 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>t/c_v_root</t>
+          <t>t/c_h_root</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cruise angle of attack</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
+          <t>Vertical tail thickness ratio</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0018</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>deg</t>
+          <t>t/c_v_root</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ultimate design load factor</t>
+          <t>Cruise angle of attack</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>deg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Number of fuel tanks</t>
+          <t>Ultimate design load factor</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -719,50 +719,50 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Number of fuel tanks</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Design propulsive efficiency</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>0.82</v>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Class I weight estimation</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Operative Empty Weight (OEW)</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>16078.71881973479</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
+          <t>Class I weight estimation</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Take-Off Weight (TOW)</t>
+          <t>Operative Empty Weight (OEW)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59469.23765527662</v>
+        <v>16191.38441793258</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -773,50 +773,50 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Take-Off Weight (TOW)</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>60502.90812731872</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Fuel weight (Wf)</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>32066.51883554183</v>
-      </c>
-      <c r="C25" t="inlineStr">
+      <c r="B26" t="n">
+        <v>32987.52370938614</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Class II weight estimation</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Wing weight</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>808.5061581844309</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
+          <t>Class II weight estimation</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fuselage weight</t>
+          <t>Wing weight</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8103.039829805081</v>
+        <v>825.4844369694044</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -827,11 +827,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Engine weight</t>
+          <t>Fuselage weight</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>5998.235682516919</v>
+        <v>8173.158346007467</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -842,11 +842,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Horizontal tail weight</t>
+          <t>Engine weight</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>684.4953146231354</v>
+        <v>6005.757255776436</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -857,11 +857,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Vertical tail weight</t>
+          <t>Horizontal tail weight</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>48.84828771041543</v>
+        <v>761.3967957754841</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -872,50 +872,50 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>Vertical tail weight</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>48.50760701348488</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Fuel tank weight</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>281.1812577558647</v>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="B34" t="n">
+        <v>285.6203946868023</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>kg</t>
         </is>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Longitudinal Static Stability</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tailless center of gravity</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>9.473779390673593</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>Longitudinal Static Stability</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Total center of gravity</t>
+          <t>Tailless center of gravity</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.975102952607239</v>
+        <v>10.28227893092554</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -926,13 +926,28 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Total center of gravity</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>10.80629378050082</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Stability margin</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>-1.803694710865269</v>
-      </c>
-      <c r="C38" t="inlineStr">
+      <c r="B39" t="n">
+        <v>0.3987364707260959</v>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>m</t>
         </is>
